--- a/user_files/hilarytn/facility2/source1/line_8.xlsx
+++ b/user_files/hilarytn/facility2/source1/line_8.xlsx
@@ -58,13 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,10 +506,10 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>c7d41729-0b6a-4433-87f6-639747ba64dd</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="n">
+          <t>05adc59e-9ff8-4855-a157-5b5f0cf7ac22</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>
@@ -541,10 +540,10 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>c7d41729-0b6a-4433-87f6-639747ba64dd</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="n">
+          <t>05adc59e-9ff8-4855-a157-5b5f0cf7ac22</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -575,10 +574,10 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>c7d41729-0b6a-4433-87f6-639747ba64dd</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="n">
+          <t>05adc59e-9ff8-4855-a157-5b5f0cf7ac22</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -609,10 +608,78 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>c7d41729-0b6a-4433-87f6-639747ba64dd</t>
-        </is>
-      </c>
-      <c r="H5" s="3" t="n">
+          <t>05adc59e-9ff8-4855-a157-5b5f0cf7ac22</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Line:8 Stage:1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>pri cl LA</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>45300.42056299769</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>45300.42067873842</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>05adc59e-9ff8-4855-a157-5b5f0cf7ac22</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Line:8 Stage:1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>pri pH HA</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>45300.65476473379</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>45300.65488047454</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>05adc59e-9ff8-4855-a157-5b5f0cf7ac22</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>10</v>
       </c>
     </row>

--- a/user_files/hilarytn/facility2/source1/line_8.xlsx
+++ b/user_files/hilarytn/facility2/source1/line_8.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,7 +507,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>31e1d9be-4621-4408-8307-24f412392e44</t>
+          <t>f72d2039-1438-4515-aa58-11f1078e2401</t>
         </is>
       </c>
       <c r="H2" s="3" t="n">
@@ -541,10 +541,78 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>31e1d9be-4621-4408-8307-24f412392e44</t>
+          <t>f72d2039-1438-4515-aa58-11f1078e2401</t>
         </is>
       </c>
       <c r="H3" s="3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Line:8 Stage:1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>pri cl LA</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>45300.42056299769</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>45300.42067873842</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>f72d2039-1438-4515-aa58-11f1078e2401</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Line:8 Stage:1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>01/09/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>pri pH HA</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>45300.65476473379</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>45300.65488047454</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>f72d2039-1438-4515-aa58-11f1078e2401</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="n">
         <v>10</v>
       </c>
     </row>
